--- a/rider/weekly/2016_38.xlsx
+++ b/rider/weekly/2016_38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Weekday</t>
   </si>
@@ -35,6 +35,30 @@
   </si>
   <si>
     <t>19 Sep 2016</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>20 Sep 2016</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>21 Sep 2016</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>22 Sep 2016</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>23 Sep 2016</t>
   </si>
 </sst>
 </file>
@@ -125,23 +149,47 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$2</c:f>
+              <c:f>Ridership!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>19 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$2</c:f>
+              <c:f>Ridership!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -165,23 +213,47 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$2</c:f>
+              <c:f>Ridership!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>19 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$2</c:f>
+              <c:f>Ridership!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>102.16</c:v>
+                  <c:v>104.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -205,23 +277,47 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$2</c:f>
+              <c:f>Ridership!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>19 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$2</c:f>
+              <c:f>Ridership!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>81.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,13 +410,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -628,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,13 +762,81 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="D2">
-        <v>102.16</v>
+        <v>104.49</v>
       </c>
       <c r="E2">
         <v>81.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>239</v>
+      </c>
+      <c r="D3">
+        <v>108.77</v>
+      </c>
+      <c r="E3">
+        <v>81.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>215</v>
+      </c>
+      <c r="D4">
+        <v>113.45</v>
+      </c>
+      <c r="E4">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <v>112.36</v>
+      </c>
+      <c r="E5">
+        <v>82.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>277</v>
+      </c>
+      <c r="D6">
+        <v>110.4</v>
+      </c>
+      <c r="E6">
+        <v>82.2</v>
       </c>
     </row>
   </sheetData>

--- a/rider/weekly/2016_38.xlsx
+++ b/rider/weekly/2016_38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Weekday</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>23 Sep 2016</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>24 Sep 2016</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>25 Sep 2016</t>
   </si>
 </sst>
 </file>
@@ -149,9 +161,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$6</c:f>
+              <c:f>Ridership!$B$2:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>19 Sep 2016</c:v>
                 </c:pt>
@@ -166,30 +178,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$6</c:f>
+              <c:f>Ridership!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>217</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>239</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>277</c:v>
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -213,9 +237,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$6</c:f>
+              <c:f>Ridership!$B$2:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>19 Sep 2016</c:v>
                 </c:pt>
@@ -230,30 +254,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$6</c:f>
+              <c:f>Ridership!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>104.49</c:v>
+                  <c:v>104.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.77</c:v>
+                  <c:v>108.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.45</c:v>
+                  <c:v>114.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.36</c:v>
+                  <c:v>111.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110.4</c:v>
+                  <c:v>109.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,9 +313,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$6</c:f>
+              <c:f>Ridership!$B$2:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>19 Sep 2016</c:v>
                 </c:pt>
@@ -294,16 +330,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$6</c:f>
+              <c:f>Ridership!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>81.56</c:v>
                 </c:pt>
@@ -318,6 +360,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,13 +458,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -724,7 +772,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D2">
-        <v>104.49</v>
+        <v>104.35</v>
       </c>
       <c r="E2">
         <v>81.56</v>
@@ -779,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>108.77</v>
+        <v>108.89</v>
       </c>
       <c r="E3">
         <v>81.72</v>
@@ -796,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D4">
-        <v>113.45</v>
+        <v>114.05</v>
       </c>
       <c r="E4">
         <v>81.88</v>
@@ -813,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D5">
-        <v>112.36</v>
+        <v>111.76</v>
       </c>
       <c r="E5">
         <v>82.04</v>
@@ -830,13 +878,47 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D6">
-        <v>110.4</v>
+        <v>109.94</v>
       </c>
       <c r="E6">
         <v>82.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>107</v>
+      </c>
+      <c r="D7">
+        <v>50.87</v>
+      </c>
+      <c r="E7">
+        <v>82.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>39.33</v>
+      </c>
+      <c r="E8">
+        <v>82.53</v>
       </c>
     </row>
   </sheetData>

--- a/rider/weekly/2016_38.xlsx
+++ b/rider/weekly/2016_38.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTR-External (6040)\CMAQ12-13 (6085)\go\reports\rider\weekly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832"/>
   </bookViews>
   <sheets>
     <sheet name="Ridership" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Weekday</t>
   </si>
@@ -59,13 +64,25 @@
   </si>
   <si>
     <t>23 Sep 2016</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>24 Sep 2016</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>25 Sep 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,12 +119,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -126,11 +161,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -149,9 +187,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$6</c:f>
+              <c:f>Ridership!$B$2:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>19 Sep 2016</c:v>
                 </c:pt>
@@ -166,34 +204,47 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$6</c:f>
+              <c:f>Ridership!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>217</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>239</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>277</c:v>
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -213,9 +264,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$6</c:f>
+              <c:f>Ridership!$B$2:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>19 Sep 2016</c:v>
                 </c:pt>
@@ -230,34 +281,47 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$6</c:f>
+              <c:f>Ridership!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>104.49</c:v>
+                  <c:v>104.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.77</c:v>
+                  <c:v>108.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.45</c:v>
+                  <c:v>114.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.36</c:v>
+                  <c:v>111.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110.4</c:v>
+                  <c:v>109.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -277,9 +341,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$6</c:f>
+              <c:f>Ridership!$B$2:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>19 Sep 2016</c:v>
                 </c:pt>
@@ -294,16 +358,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24 Sep 2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25 Sep 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$6</c:f>
+              <c:f>Ridership!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>81.56</c:v>
                 </c:pt>
@@ -318,20 +388,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="210955784"/>
+        <c:axId val="210956176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50010001"/>
+        <c:axId val="210955784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -350,19 +436,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
+        <c:crossAx val="210956176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010002"/>
+        <c:axId val="210956176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -382,10 +474,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
+        <c:crossAx val="210955784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -393,8 +488,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -410,13 +508,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -482,7 +580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,9 +612,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,6 +647,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -723,21 +823,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -762,16 +858,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D2">
-        <v>104.49</v>
+        <v>104.35</v>
       </c>
       <c r="E2">
         <v>81.56</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -779,16 +875,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>108.77</v>
+        <v>108.89</v>
       </c>
       <c r="E3">
         <v>81.72</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -796,16 +892,16 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D4">
-        <v>113.45</v>
+        <v>114.05</v>
       </c>
       <c r="E4">
         <v>81.88</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -813,16 +909,16 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D5">
-        <v>112.36</v>
+        <v>111.76</v>
       </c>
       <c r="E5">
         <v>82.04</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -830,13 +926,47 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D6">
-        <v>110.4</v>
+        <v>109.94</v>
       </c>
       <c r="E6">
         <v>82.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>107</v>
+      </c>
+      <c r="D7">
+        <v>50.87</v>
+      </c>
+      <c r="E7">
+        <v>82.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>39.33</v>
+      </c>
+      <c r="E8">
+        <v>82.53</v>
       </c>
     </row>
   </sheetData>
